--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_9.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2995243.613506387</v>
+        <v>2995243.613506388</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4812058.02286789</v>
+        <v>4812058.022867889</v>
       </c>
     </row>
     <row r="11">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.61706312961832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2968606583479769</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1458,52 +1458,52 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="S12" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="T12" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="U12" t="n">
         <v>22.56635248423083</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="H12" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="I12" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>10.61706312961832</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G14" t="n">
         <v>25.62029119463083</v>
@@ -1625,10 +1625,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
-        <v>25.62029119463083</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F15" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>25.62029119463083</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1853,43 +1853,43 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="H17" t="n">
-        <v>12.35200489467393</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I17" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1932,64 +1932,64 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I18" t="n">
+      <c r="Y18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="19">
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="S19" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>27.59002526031614</v>
@@ -2059,13 +2059,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.92645775760019</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>11.01727716149734</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>234.288905720311</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>49.23175083062949</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.79900896488263</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>73.65830350187551</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>223.5500084481726</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02881784590195366</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>184.6464420572887</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>57.99009076777986</v>
       </c>
       <c r="H33" t="n">
-        <v>104.9740769133399</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3269,58 +3269,58 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>167.7790445900539</v>
+      </c>
+      <c r="T35" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>189.7190331592112</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="Y35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.886618849664252</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>8.76604740943441</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>179.7283339446664</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>194.6371412718335</v>
       </c>
       <c r="W38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>33.26513104358009</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
-        <v>51.5721175443767</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,70 +3737,70 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>187.9840913941556</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>213.4242636173429</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>177.9933921796109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>213.4242636173429</v>
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>91.28192204366435</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>70.18697677157408</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.75685858698967</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C8" t="n">
-        <v>91.75685858698967</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="D8" t="n">
-        <v>91.75685858698967</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E8" t="n">
-        <v>91.75685858698967</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F8" t="n">
-        <v>91.75685858698967</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G8" t="n">
-        <v>65.87777657221105</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H8" t="n">
-        <v>39.99869455743244</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I8" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
         <v>2.049623295570466</v>
@@ -4811,13 +4811,13 @@
         <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N8" t="n">
         <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
@@ -4832,22 +4832,22 @@
         <v>102.4811647785233</v>
       </c>
       <c r="T8" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U8" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V8" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W8" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X8" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y8" t="n">
-        <v>91.75685858698967</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L9" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="L9" t="n">
-        <v>51.75298821315428</v>
-      </c>
       <c r="M9" t="n">
+        <v>52.77779986093951</v>
+      </c>
+      <c r="N9" t="n">
         <v>77.1170764958388</v>
       </c>
-      <c r="N9" t="n">
-        <v>102.4811647785233</v>
-      </c>
       <c r="O9" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q9" t="n">
         <v>102.4811647785233</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H10" t="n">
-        <v>24.54405948333093</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I10" t="n">
-        <v>24.54405948333093</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
         <v>24.54405948333093</v>
@@ -4972,40 +4972,40 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>78.14188814362404</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O10" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>102.1813055276668</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.30222351288816</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>50.42314149810954</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.54405948333093</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="11">
@@ -5045,16 +5045,16 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N11" t="n">
         <v>77.1170764958388</v>
       </c>
       <c r="O11" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
         <v>102.4811647785233</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F12" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G12" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H12" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I12" t="n">
         <v>2.049623295570466</v>
@@ -5136,34 +5136,34 @@
         <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q12" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T12" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="13">
@@ -5209,7 +5209,7 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
         <v>102.4811647785233</v>
@@ -5264,34 +5264,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="F14" t="n">
-        <v>91.75685858698967</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G14" t="n">
-        <v>65.87777657221105</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H14" t="n">
-        <v>39.99869455743244</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I14" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
+        <v>52.77779986093951</v>
+      </c>
+      <c r="N14" t="n">
+        <v>52.77779986093951</v>
+      </c>
+      <c r="O14" t="n">
         <v>77.1170764958388</v>
-      </c>
-      <c r="N14" t="n">
-        <v>77.1170764958388</v>
-      </c>
-      <c r="O14" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5334,25 +5334,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="C15" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D15" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E15" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F15" t="n">
-        <v>80.44100199269204</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G15" t="n">
-        <v>54.56191997791342</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H15" t="n">
-        <v>28.6828379631348</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
         <v>2.049623295570466</v>
@@ -5361,7 +5361,7 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M15" t="n">
         <v>77.1170764958388</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C17" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D17" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E17" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F17" t="n">
         <v>82.49138865710684</v>
@@ -5507,10 +5507,10 @@
         <v>54.62267627294912</v>
       </c>
       <c r="H17" t="n">
-        <v>42.14590365206637</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J17" t="n">
         <v>2.207202020825291</v>
@@ -5522,13 +5522,13 @@
         <v>29.52132702853827</v>
       </c>
       <c r="M17" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N17" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
@@ -5537,28 +5537,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R17" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S17" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T17" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U17" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V17" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W17" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X17" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C18" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D18" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E18" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F18" t="n">
-        <v>57.94462678914073</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G18" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H18" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I18" t="n">
         <v>2.207202020825291</v>
@@ -5595,49 +5595,49 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L18" t="n">
-        <v>2.207202020825291</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M18" t="n">
-        <v>28.41772601812563</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N18" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O18" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S18" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T18" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U18" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V18" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W18" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X18" t="n">
         <v>82.49138865710684</v>
       </c>
       <c r="Y18" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="19">
@@ -5695,7 +5695,7 @@
         <v>108.4888536788635</v>
       </c>
       <c r="R19" t="n">
-        <v>108.4888536788635</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S19" t="n">
         <v>85.81333917329844</v>
@@ -5707,10 +5707,10 @@
         <v>30.07591440498301</v>
       </c>
       <c r="V19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X19" t="n">
         <v>2.207202020825291</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E20" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="D20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>489.203140025706</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C21" t="n">
-        <v>314.750110744579</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D21" t="n">
-        <v>165.8157010833278</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X21" t="n">
-        <v>518.4217842253022</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y21" t="n">
-        <v>518.4217842253022</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="22">
@@ -5926,10 +5926,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R22" t="n">
         <v>19.28114311021272</v>
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>499.3853800778592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>255.9366034337592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>243.4632136343998</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C24" t="n">
-        <v>69.01018435327282</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D24" t="n">
-        <v>69.01018435327282</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E24" t="n">
-        <v>69.01018435327282</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6078,40 +6078,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>619.4388494194218</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>619.4388494194218</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y24" t="n">
-        <v>411.6785506544679</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="25">
@@ -6184,13 +6184,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>788.4852992939507</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>788.4852992939507</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>788.4852992939507</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>788.4852992939507</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>545.0365226498506</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>337.1850224443177</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564972</v>
+        <v>337.1850224443177</v>
       </c>
     </row>
     <row r="28">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>492.4565854669654</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,10 +6546,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M30" t="n">
         <v>304.2053859195205</v>
-      </c>
-      <c r="M30" t="n">
-        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6576,16 +6576,16 @@
         <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W30" t="n">
-        <v>660.6719224870335</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>660.6719224870335</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>660.6719224870335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
         <v>19.28114311021272</v>
@@ -6661,10 +6661,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>447.4031231009394</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="C32" t="n">
-        <v>447.4031231009394</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D32" t="n">
-        <v>447.4031231009394</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E32" t="n">
-        <v>447.4031231009394</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F32" t="n">
-        <v>447.4031231009394</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G32" t="n">
-        <v>229.833428471618</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H32" t="n">
-        <v>229.833428471618</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
         <v>17.23151981464226</v>
@@ -6707,43 +6707,43 @@
         <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
-        <v>506.5265183822256</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N32" t="n">
-        <v>712.3810405894649</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>861.5759907321129</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T32" t="n">
-        <v>664.9728177302609</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U32" t="n">
-        <v>447.4031231009394</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V32" t="n">
-        <v>447.4031231009394</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W32" t="n">
-        <v>447.4031231009394</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X32" t="n">
-        <v>447.4031231009394</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y32" t="n">
-        <v>447.4031231009394</v>
+        <v>669.9406037026066</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>558.2198666437646</v>
+        <v>166.8611308706552</v>
       </c>
       <c r="C33" t="n">
-        <v>558.2198666437646</v>
+        <v>166.8611308706552</v>
       </c>
       <c r="D33" t="n">
-        <v>409.2854569825133</v>
+        <v>166.8611308706552</v>
       </c>
       <c r="E33" t="n">
-        <v>409.2854569825133</v>
+        <v>166.8611308706552</v>
       </c>
       <c r="F33" t="n">
-        <v>262.7508990093983</v>
+        <v>166.8611308706552</v>
       </c>
       <c r="G33" t="n">
-        <v>124.0200735920138</v>
+        <v>108.2852816102715</v>
       </c>
       <c r="H33" t="n">
-        <v>17.98565246742797</v>
+        <v>108.2852816102715</v>
       </c>
       <c r="I33" t="n">
         <v>17.98565246742797</v>
@@ -6783,10 +6783,10 @@
         <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>355.8291375786776</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="M33" t="n">
-        <v>355.8291375786776</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="N33" t="n">
         <v>465.6924554125641</v>
@@ -6807,22 +6807,22 @@
         <v>760.4064612849986</v>
       </c>
       <c r="T33" t="n">
-        <v>558.2198666437646</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="U33" t="n">
-        <v>558.2198666437646</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="V33" t="n">
-        <v>558.2198666437646</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="W33" t="n">
-        <v>558.2198666437646</v>
+        <v>542.8367666556771</v>
       </c>
       <c r="X33" t="n">
-        <v>558.2198666437646</v>
+        <v>542.8367666556771</v>
       </c>
       <c r="Y33" t="n">
-        <v>558.2198666437646</v>
+        <v>335.0764678907232</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="F34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="G34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>426.43660147347</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="C35" t="n">
-        <v>426.43660147347</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="D35" t="n">
-        <v>208.8669068441485</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="E35" t="n">
-        <v>208.8669068441485</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="F35" t="n">
-        <v>208.8669068441485</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="G35" t="n">
-        <v>208.8669068441485</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="H35" t="n">
-        <v>17.23151981464226</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="I35" t="n">
-        <v>17.23151981464226</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J35" t="n">
         <v>17.23151981464226</v>
@@ -6941,7 +6941,7 @@
         <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>300.3223773102232</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M35" t="n">
         <v>416.8664630901746</v>
@@ -6956,31 +6956,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>861.5759907321129</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R35" t="n">
-        <v>861.5759907321129</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S35" t="n">
-        <v>861.5759907321129</v>
+        <v>682.01059294969</v>
       </c>
       <c r="T35" t="n">
-        <v>861.5759907321129</v>
+        <v>464.4408983203685</v>
       </c>
       <c r="U35" t="n">
-        <v>861.5759907321129</v>
+        <v>246.8712036910471</v>
       </c>
       <c r="V35" t="n">
-        <v>861.5759907321129</v>
+        <v>246.8712036910471</v>
       </c>
       <c r="W35" t="n">
-        <v>861.5759907321129</v>
+        <v>246.8712036910471</v>
       </c>
       <c r="X35" t="n">
-        <v>644.0062961027915</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="Y35" t="n">
-        <v>426.43660147347</v>
+        <v>29.30150906172561</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.23151981464226</v>
+        <v>470.5889515534603</v>
       </c>
       <c r="C36" t="n">
-        <v>17.23151981464226</v>
+        <v>470.5889515534603</v>
       </c>
       <c r="D36" t="n">
-        <v>17.23151981464226</v>
+        <v>461.7343582105973</v>
       </c>
       <c r="E36" t="n">
-        <v>17.23151981464226</v>
+        <v>302.4969032051418</v>
       </c>
       <c r="F36" t="n">
-        <v>17.23151981464226</v>
+        <v>155.9623452320268</v>
       </c>
       <c r="G36" t="n">
         <v>17.23151981464226</v>
@@ -7017,10 +7017,10 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L36" t="n">
-        <v>355.8291375786776</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M36" t="n">
         <v>396.2978968992348</v>
@@ -7041,25 +7041,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>861.5759907321129</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="T36" t="n">
-        <v>659.389396090879</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="U36" t="n">
-        <v>659.389396090879</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="V36" t="n">
-        <v>659.389396090879</v>
+        <v>470.5889515534603</v>
       </c>
       <c r="W36" t="n">
-        <v>441.8197014615575</v>
+        <v>470.5889515534603</v>
       </c>
       <c r="X36" t="n">
-        <v>233.9682012560247</v>
+        <v>470.5889515534603</v>
       </c>
       <c r="Y36" t="n">
-        <v>26.2079024910708</v>
+        <v>470.5889515534603</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L37" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M37" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N37" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>198.7752914759215</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="C38" t="n">
-        <v>198.7752914759215</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="D38" t="n">
-        <v>198.7752914759215</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="E38" t="n">
-        <v>198.7752914759215</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="F38" t="n">
-        <v>198.7752914759215</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="G38" t="n">
-        <v>17.23151981464226</v>
+        <v>447.4031231009394</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23151981464226</v>
+        <v>229.833428471618</v>
       </c>
       <c r="I38" t="n">
         <v>17.23151981464226</v>
@@ -7175,13 +7175,13 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>203.6264053839766</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>416.8664630901746</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N38" t="n">
         <v>622.7209852974139</v>
@@ -7193,31 +7193,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V38" t="n">
-        <v>851.4843753638859</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="W38" t="n">
-        <v>633.9146807345644</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="X38" t="n">
-        <v>416.3449861052429</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="Y38" t="n">
-        <v>198.7752914759215</v>
+        <v>664.9728177302609</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>191.6845490957693</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="C39" t="n">
-        <v>17.23151981464226</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="D39" t="n">
         <v>17.23151981464226</v>
@@ -7254,22 +7254,22 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>17.23151981464226</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>230.4715775208402</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M39" t="n">
-        <v>443.7116352270382</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="N39" t="n">
-        <v>648.335933025915</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O39" t="n">
-        <v>861.5759907321129</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P39" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q39" t="n">
         <v>861.5759907321129</v>
@@ -7278,25 +7278,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>861.5759907321129</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="T39" t="n">
-        <v>659.389396090879</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="U39" t="n">
-        <v>659.389396090879</v>
+        <v>268.4023569122264</v>
       </c>
       <c r="V39" t="n">
-        <v>659.389396090879</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="W39" t="n">
-        <v>607.2963480662561</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="X39" t="n">
-        <v>399.4448478607232</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="Y39" t="n">
-        <v>191.6845490957693</v>
+        <v>50.83266228290498</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>628.0253748412023</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="C41" t="n">
-        <v>628.0253748412023</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D41" t="n">
-        <v>628.0253748412023</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E41" t="n">
-        <v>412.4453105812599</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F41" t="n">
-        <v>412.4453105812599</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
-        <v>196.8652463213176</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H41" t="n">
-        <v>196.8652463213176</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I41" t="n">
         <v>17.07394108938743</v>
@@ -7412,10 +7412,10 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>17.62165426160527</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L41" t="n">
-        <v>197.6975058462639</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
         <v>408.9875268274333</v>
@@ -7430,31 +7430,31 @@
         <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>843.6054391011446</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X41" t="n">
-        <v>628.0253748412023</v>
+        <v>422.536925949487</v>
       </c>
       <c r="Y41" t="n">
-        <v>628.0253748412023</v>
+        <v>422.536925949487</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>430.2654900038965</v>
+        <v>88.72400987507626</v>
       </c>
       <c r="C42" t="n">
-        <v>255.8124607227695</v>
+        <v>88.72400987507626</v>
       </c>
       <c r="D42" t="n">
-        <v>255.8124607227695</v>
+        <v>88.72400987507626</v>
       </c>
       <c r="E42" t="n">
-        <v>163.6084990625025</v>
+        <v>88.72400987507626</v>
       </c>
       <c r="F42" t="n">
-        <v>17.07394108938743</v>
+        <v>88.72400987507626</v>
       </c>
       <c r="G42" t="n">
-        <v>17.07394108938743</v>
+        <v>88.72400987507626</v>
       </c>
       <c r="H42" t="n">
-        <v>17.07394108938743</v>
+        <v>88.72400987507626</v>
       </c>
       <c r="I42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>17.07394108938743</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L42" t="n">
-        <v>219.8269915258632</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>431.1170125070327</v>
+        <v>565.0115431095638</v>
       </c>
       <c r="N42" t="n">
-        <v>642.4070334882022</v>
+        <v>573.0124749748728</v>
       </c>
       <c r="O42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="P42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
@@ -7515,25 +7515,25 @@
         <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>853.6970544693717</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="T42" t="n">
-        <v>853.6970544693717</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="U42" t="n">
-        <v>638.1169902094293</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="V42" t="n">
-        <v>638.1169902094293</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="W42" t="n">
-        <v>638.1169902094293</v>
+        <v>464.6996456600982</v>
       </c>
       <c r="X42" t="n">
-        <v>430.2654900038965</v>
+        <v>464.6996456600982</v>
       </c>
       <c r="Y42" t="n">
-        <v>430.2654900038965</v>
+        <v>256.9393468951443</v>
       </c>
     </row>
     <row r="43">
@@ -8459,16 +8459,16 @@
         <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N8" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1395076939139</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
         <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>156.9620032779641</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,19 +8693,19 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>260.3515428840269</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N11" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8784,10 +8784,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>244.6749789590202</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
         <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>255.7185026163176</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,10 +9009,10 @@
         <v>163.4617301689898</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1395076939139</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>167.7543251166491</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9170,16 +9170,16 @@
         <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
-        <v>255.8883403615408</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O17" t="n">
         <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>168.6093106869682</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N18" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,7 +9486,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,16 +9726,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,13 +10194,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10355,16 +10355,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>438.6332444111135</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>339.6742254965835</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>353.9483774629024</v>
+        <v>249.5274280969312</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N33" t="n">
-        <v>242.3147604003904</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>357.9902421274727</v>
@@ -10589,10 +10589,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M35" t="n">
-        <v>348.0675319949004</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>183.0115685892478</v>
+        <v>309.6353666274674</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10832,7 +10832,7 @@
         <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>339.6742254965835</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>357.5280316050465</v>
+        <v>183.0115685892478</v>
       </c>
       <c r="N39" t="n">
-        <v>338.0329219811887</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.6430966734834</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>443.7704968446156</v>
+        <v>340.2681809469343</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>343.3554408268194</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
         <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>344.7659757006762</v>
+        <v>139.4234614422313</v>
       </c>
       <c r="O42" t="n">
         <v>356.0205080617874</v>
@@ -11157,7 +11157,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23024,7 +23024,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>329.0627504260521</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23039,10 +23039,10 @@
         <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
-        <v>184.8555983757751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23072,7 +23072,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>200.5294970799005</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>375.6208755264353</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23191,16 +23191,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,16 +23218,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.424580076758535</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23346,16 +23346,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>122.502859909153</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>203.375029596744</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>396.2589826120931</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G14" t="n">
         <v>389.6824463205042</v>
@@ -23513,10 +23513,10 @@
         <v>313.8545109211363</v>
       </c>
       <c r="I14" t="n">
-        <v>184.8555983757751</v>
+        <v>187.9095370861751</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>121.8247743700079</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F15" t="n">
-        <v>123.2494512354109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>86.61515304186563</v>
+        <v>89.66909175226563</v>
       </c>
       <c r="I15" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>387.7127122548189</v>
       </c>
       <c r="H17" t="n">
-        <v>327.1227972210932</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I17" t="n">
-        <v>182.8858643100898</v>
+        <v>186.1745953211195</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>113.0422229139242</v>
       </c>
       <c r="H18" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23874,10 +23874,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y18" t="n">
-        <v>181.3814015280179</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="19">
@@ -23935,10 +23935,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>154.8446320166601</v>
       </c>
       <c r="S19" t="n">
-        <v>201.5678386764629</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>200.3555641679654</v>
@@ -23947,13 +23947,13 @@
         <v>258.7290040961748</v>
       </c>
       <c r="V19" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23969,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8624047773015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,10 +24014,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,7 +24026,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,19 +24045,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>137.6067258922671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>146.6278032939036</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,10 +24111,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24166,13 +24166,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,7 +24215,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>114.952062997102</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,10 +24294,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>95.83746156275438</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>102.68284301593</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,7 +24494,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>136.7341746849847</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,19 +24567,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>98.02486760196231</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24725,13 +24725,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,22 +24756,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24816,16 +24816,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>9.250578701252635</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6661653150177</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.91450442245211</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24862,7 +24862,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,13 +24929,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>199.9087398321068</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,10 +24968,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>38.44940750684262</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>35.95165522480826</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>196.5189054968423</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>79.35342639543077</v>
       </c>
       <c r="H33" t="n">
-        <v>7.26136732315652</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,7 +25047,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,13 +25056,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>139.2890439376547</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,13 +25169,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>149.755768956556</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>41.24102499619147</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>7.701851881103124</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>154.3371029954408</v>
       </c>
       <c r="Y35" t="n">
-        <v>170.8439409730254</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.6465648002031</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>138.6790181552043</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W36" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25403,13 +25403,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>235.5744035704686</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>124.0808044327389</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>133.1151171983014</v>
       </c>
       <c r="W38" t="n">
-        <v>133.8469710343848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>154.3371029954408</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>170.8439409730254</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>114.1799345210587</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25518,25 +25518,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
-        <v>200.1228656165429</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>177.2888003768519</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5061064549189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>201.8784738977921</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>32.48249739079506</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
         <v>156.3068370611261</v>
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>66.36315841173659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25725,10 +25725,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>19.209656079841</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>12.5171184636319</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350035.0587549795</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205641</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506790.0512205639</v>
+        <v>506790.0512205641</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488291.6158105898</v>
+        <v>488291.61581059</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>488291.61581059</v>
+        <v>488291.6158105897</v>
       </c>
     </row>
     <row r="15">
@@ -26314,22 +26314,22 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
-        <v>51644.51686548872</v>
+        <v>51644.51686548871</v>
       </c>
       <c r="E2" t="n">
+        <v>51644.51686548874</v>
+      </c>
+      <c r="F2" t="n">
         <v>51644.51686548873</v>
       </c>
-      <c r="F2" t="n">
-        <v>51644.51686548872</v>
-      </c>
       <c r="G2" t="n">
-        <v>51885.62330624471</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="H2" t="n">
-        <v>74772.30263909958</v>
+        <v>74772.30263909959</v>
       </c>
       <c r="I2" t="n">
         <v>74772.30263909959</v>
@@ -26344,7 +26344,7 @@
         <v>72043.0252835296</v>
       </c>
       <c r="M2" t="n">
-        <v>72043.02528352958</v>
+        <v>72043.0252835296</v>
       </c>
       <c r="N2" t="n">
         <v>72043.0252835296</v>
@@ -26525,19 +26525,19 @@
         <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>8478.55543273894</v>
+        <v>8478.555432738933</v>
       </c>
       <c r="E6" t="n">
+        <v>50064.58648652714</v>
+      </c>
+      <c r="F6" t="n">
         <v>50064.58648652713</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50064.58648652711</v>
       </c>
       <c r="G6" t="n">
         <v>49644.4185221752</v>
       </c>
       <c r="H6" t="n">
-        <v>2355.314235302259</v>
+        <v>2355.314235302274</v>
       </c>
       <c r="I6" t="n">
         <v>59939.10137763395</v>
@@ -26549,13 +26549,13 @@
         <v>59939.10137763394</v>
       </c>
       <c r="L6" t="n">
-        <v>58786.10234497163</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="M6" t="n">
-        <v>58786.10234497162</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="N6" t="n">
-        <v>58786.10234497163</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="O6" t="n">
         <v>58697.4577056471</v>
@@ -35179,16 +35179,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N8" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="L9" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="M9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35343,7 +35343,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M11" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="O11" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>24.58512791403969</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="P14" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L15" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M15" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="M15" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35890,16 +35890,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N17" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M18" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="O18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="P18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>240.0046611659691</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36914,13 +36914,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>161.1784674257276</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37075,16 +37075,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>208.2870111838408</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>110.2611618999926</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
+        <v>110.973048317057</v>
+      </c>
+      <c r="M33" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
       <c r="N33" t="n">
-        <v>110.973048317057</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>215.3939976830282</v>
@@ -37309,10 +37309,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M35" t="n">
-        <v>117.7212987676277</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>40.87753466722953</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
@@ -37552,7 +37552,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>110.2611618999926</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>215.3939976830282</v>
+        <v>40.87753466722953</v>
       </c>
       <c r="N39" t="n">
-        <v>206.6912098978553</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5532456285028686</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>213.4242636173429</v>
+        <v>109.9219477196616</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>204.8010610469452</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
-        <v>213.4242636173429</v>
+        <v>8.081749358897964</v>
       </c>
       <c r="O42" t="n">
         <v>213.4242636173429</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
